--- a/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14295"/>
+    <workbookView windowWidth="28128" windowHeight="12575"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -98,6 +98,87 @@
   </si>
   <si>
     <t>8.4391546</t>
+  </si>
+  <si>
+    <t>Die zwei Mädchen.</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>Mundart in der Gegend von Friedberg in der Wetterau.</t>
+  </si>
+  <si>
+    <t>Friedberg</t>
+  </si>
+  <si>
+    <t>50.3308276</t>
+  </si>
+  <si>
+    <t>8.7464030</t>
+  </si>
+  <si>
+    <t>Miller Miller Måhler.</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 486 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>Liedchen beim Anblick eines Storches.</t>
+  </si>
+  <si>
+    <t>Liedchen beim Anblicke eines Storches.</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 487 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>Liechen beim Anblick eines Raben.</t>
+  </si>
+  <si>
+    <t>Liechen beim Anblicke eines Raben.</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 488 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>Saft Saft Sinn.</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 489 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>Droß droß drill.</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 490 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>Batsche, Batsche, Kichelche.</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 491 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>Volksliedchen.</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 492 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>{Ohne Titel - aber mit Erklärung wann dieses Lied gesungen wird}</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 493 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>Räthsel.</t>
+  </si>
+  <si>
+    <t>Rätsel.</t>
+  </si>
+  <si>
+    <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 494 in OG Tabelle}</t>
   </si>
 </sst>
 </file>
@@ -105,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -129,6 +210,59 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,6 +274,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -155,11 +304,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,9 +333,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,29 +343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,67 +356,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,7 +366,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,13 +408,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,13 +468,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +516,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,131 +546,50 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,8 +611,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,33 +621,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,24 +658,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,19 +671,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,7 +692,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,129 +701,139 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,121 +1153,672 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:P2"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="11" max="11" width="9.13888888888889" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:21">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1"/>
+      <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="2:16">
-      <c r="B2" s="2">
+    <row r="2" s="1" customFormat="1" spans="2:19">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>17</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>17</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>29</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="2:20">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>101</v>
+      </c>
+      <c r="E3" s="4">
+        <v>102</v>
+      </c>
+      <c r="F3" s="4">
+        <v>113</v>
+      </c>
+      <c r="G3" s="4">
+        <v>114</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="1">
+        <v>888</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="2:20">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
+        <v>102</v>
+      </c>
+      <c r="E4" s="4">
+        <v>103</v>
+      </c>
+      <c r="F4" s="4">
+        <v>114</v>
+      </c>
+      <c r="G4" s="4">
+        <v>115</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="2:20">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>103</v>
+      </c>
+      <c r="E5" s="4">
+        <v>104</v>
+      </c>
+      <c r="F5" s="4">
+        <v>115</v>
+      </c>
+      <c r="G5" s="4">
+        <v>116</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="2:20">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4">
+        <v>104</v>
+      </c>
+      <c r="E6" s="4">
+        <v>105</v>
+      </c>
+      <c r="F6" s="4">
+        <v>116</v>
+      </c>
+      <c r="G6" s="4">
+        <v>117</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="2:20">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>105</v>
+      </c>
+      <c r="E7" s="4">
+        <v>106</v>
+      </c>
+      <c r="F7" s="4">
+        <v>117</v>
+      </c>
+      <c r="G7" s="4">
+        <v>118</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="1">
+        <v>888</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="2:20">
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4">
+        <v>106</v>
+      </c>
+      <c r="E8" s="4">
+        <v>107</v>
+      </c>
+      <c r="F8" s="4">
+        <v>118</v>
+      </c>
+      <c r="G8" s="4">
+        <v>119</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="1">
+        <v>888</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="2:20">
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <v>107</v>
+      </c>
+      <c r="E9" s="4">
+        <v>108</v>
+      </c>
+      <c r="F9" s="4">
+        <v>119</v>
+      </c>
+      <c r="G9" s="4">
+        <v>120</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="2:20">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4">
+        <v>109</v>
+      </c>
+      <c r="F10" s="4">
+        <v>120</v>
+      </c>
+      <c r="G10" s="4">
+        <v>121</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="1">
+        <v>888</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="2:20">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>109</v>
+      </c>
+      <c r="E11" s="4">
+        <v>110</v>
+      </c>
+      <c r="F11" s="4">
+        <v>121</v>
+      </c>
+      <c r="G11" s="4">
+        <v>122</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="2:16">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="11:11">
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="11:11">
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="11:11">
+      <c r="K15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28128" windowHeight="12575"/>
+    <workbookView windowWidth="28125" windowHeight="14295"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 494 in OG Tabelle}</t>
+  </si>
+  <si>
+    <t>Mundart der Gegend um Bernburg im Anhaltischen.</t>
+  </si>
+  <si>
+    <t>Bernburg</t>
+  </si>
+  <si>
+    <t>51.7904950</t>
+  </si>
+  <si>
+    <t>11.7427593</t>
+  </si>
+  <si>
+    <t>Wiegenlieder und Kinderreime.</t>
   </si>
 </sst>
 </file>
@@ -186,9 +201,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -213,6 +228,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -221,51 +364,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -273,89 +371,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -366,49 +381,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,79 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,49 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,16 +584,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -589,6 +604,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,9 +649,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,43 +667,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,147 +692,153 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -831,6 +852,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1155,120 +1182,122 @@
   <sheetPr/>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="$A1:$XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="9.13888888888889" style="2"/>
+    <col min="11" max="11" width="9.14285714285714" style="4"/>
+    <col min="17" max="17" width="54.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="50.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:21">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3"/>
+      <c r="U1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:19">
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>17</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>17</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>29</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <v>29</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1285,44 +1314,44 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>101</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>102</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>113</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>114</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="4" t="s">
+      <c r="I3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1339,47 +1368,47 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:20">
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>102</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>103</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>114</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>115</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1399,44 +1428,44 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>103</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>104</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>115</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>116</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4" t="s">
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1453,47 +1482,47 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:20">
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>104</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>105</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>116</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>117</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="4" t="s">
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1513,44 +1542,44 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>105</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>106</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>117</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>118</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4" t="s">
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1567,47 +1596,47 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:20">
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>106</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>107</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>118</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>119</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4" t="s">
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1627,44 +1656,44 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>107</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>108</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>119</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>120</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4" t="s">
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -1681,47 +1710,47 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:20">
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>108</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>109</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>120</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>121</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4" t="s">
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -1741,44 +1770,44 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>109</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>110</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>121</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>122</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="4" t="s">
+      <c r="I11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="N11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -1794,31 +1823,68 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:16">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+    <row r="12" s="1" customFormat="1" spans="2:19">
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="6">
+        <v>228</v>
+      </c>
+      <c r="E12" s="6">
+        <v>228</v>
+      </c>
+      <c r="F12" s="6">
+        <v>240</v>
+      </c>
+      <c r="G12" s="6">
+        <v>240</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
+      <c r="L12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="11:11">
-      <c r="K13" s="8"/>
+      <c r="K13" s="10"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="11:11">
-      <c r="K14" s="8"/>
+    <row r="14" s="2" customFormat="1" spans="11:11">
+      <c r="K14" s="11"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="11:11">
-      <c r="K15" s="8"/>
+    <row r="15" s="3" customFormat="1" spans="11:11">
+      <c r="K15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14295"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -201,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -228,6 +228,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -235,8 +274,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,126 +365,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -381,19 +381,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,79 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,79 +555,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,16 +585,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,15 +604,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,17 +623,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +652,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -692,153 +692,147 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -852,12 +846,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1183,121 +1171,121 @@
   <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="$A1:$XFD14"/>
+      <selection activeCell="Q3" sqref="Q3:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="9.14285714285714" style="4"/>
+    <col min="11" max="11" width="9.14285714285714" style="2"/>
     <col min="17" max="17" width="54.1428571428571" customWidth="1"/>
     <col min="18" max="18" width="50.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:21">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="2:19">
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>17</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>17</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>29</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>29</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1314,44 +1302,44 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>101</v>
       </c>
-      <c r="E3" s="6">
-        <v>102</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="4">
+        <v>101</v>
+      </c>
+      <c r="F3" s="4">
         <v>113</v>
       </c>
-      <c r="G3" s="6">
-        <v>114</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="4">
+        <v>113</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="6" t="s">
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1368,47 +1356,47 @@
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:20">
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="6">
-        <v>102</v>
-      </c>
-      <c r="E4" s="6">
-        <v>103</v>
-      </c>
-      <c r="F4" s="6">
-        <v>114</v>
-      </c>
-      <c r="G4" s="6">
-        <v>115</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="D4" s="4">
+        <v>101</v>
+      </c>
+      <c r="E4" s="4">
+        <v>101</v>
+      </c>
+      <c r="F4" s="4">
+        <v>113</v>
+      </c>
+      <c r="G4" s="4">
+        <v>113</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="6" t="s">
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1428,44 +1416,44 @@
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6">
-        <v>103</v>
-      </c>
-      <c r="E5" s="6">
-        <v>104</v>
-      </c>
-      <c r="F5" s="6">
-        <v>115</v>
-      </c>
-      <c r="G5" s="6">
-        <v>116</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="D5" s="4">
+        <v>101</v>
+      </c>
+      <c r="E5" s="4">
+        <v>101</v>
+      </c>
+      <c r="F5" s="4">
+        <v>113</v>
+      </c>
+      <c r="G5" s="4">
+        <v>113</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="6" t="s">
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1482,47 +1470,47 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:20">
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>104</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>105</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>116</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>117</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="6" t="s">
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1542,44 +1530,44 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>105</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>106</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>117</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>118</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="6" t="s">
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1596,47 +1584,47 @@
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:20">
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>106</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>107</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>118</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>119</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="6" t="s">
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1656,44 +1644,44 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>107</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>108</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>119</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>120</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="6" t="s">
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -1710,47 +1698,47 @@
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:20">
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>108</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>109</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>120</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>121</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="6" t="s">
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -1770,44 +1758,44 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>109</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>110</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>121</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>122</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="6" t="s">
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -1824,47 +1812,47 @@
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:19">
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>228</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>228</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>240</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>240</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="7" t="s">
         <v>58</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -1878,13 +1866,13 @@
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="11:11">
-      <c r="K13" s="10"/>
+      <c r="K13" s="8"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="11:11">
-      <c r="K14" s="11"/>
+    <row r="14" s="1" customFormat="1" spans="11:11">
+      <c r="K14" s="8"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="11:11">
-      <c r="K15" s="12"/>
+    <row r="15" s="1" customFormat="1" spans="11:11">
+      <c r="K15" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView windowWidth="28125" windowHeight="14295"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Mundart von Speyer und der Umgegend.</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -194,6 +188,45 @@
   </si>
   <si>
     <t>Wiegenlieder und Kinderreime.</t>
+  </si>
+  <si>
+    <t>Mundart von Kleve</t>
+  </si>
+  <si>
+    <t>Kleve</t>
+  </si>
+  <si>
+    <t>51.7871342</t>
+  </si>
+  <si>
+    <t>6.1329680</t>
+  </si>
+  <si>
+    <t>Lied bei einem Kinderspiel.</t>
+  </si>
+  <si>
+    <t>Trinklied.</t>
+  </si>
+  <si>
+    <t>Et ging 'ne pater langs te [k]ant.</t>
+  </si>
+  <si>
+    <t>Es ging ein [pater entlang] der Kante[/Rand].</t>
+  </si>
+  <si>
+    <t>HW, Buch</t>
+  </si>
+  <si>
+    <t>Sinter, Sinter, [M]arte.</t>
+  </si>
+  <si>
+    <t>Sanft, sanft [Martin].</t>
+  </si>
+  <si>
+    <t>De griethüüs[ß]e mädjes.</t>
+  </si>
+  <si>
+    <t>Das [Griethausische Mädchen]</t>
   </si>
 </sst>
 </file>
@@ -201,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -229,79 +262,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,10 +283,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,6 +333,22 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -350,17 +369,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,6 +382,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -381,19 +414,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +558,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,49 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,85 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +614,39 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -601,8 +667,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -626,43 +694,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,152 +719,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,12 +876,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1212,7 +1251,7 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1263,39 +1302,33 @@
       <c r="G2" s="4">
         <v>29</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="Q2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:20">
@@ -1303,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4">
         <v>101</v>
@@ -1317,42 +1350,36 @@
       <c r="G3" s="4">
         <v>113</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="O3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="R3" s="1">
         <v>888</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="2:20">
@@ -1360,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4">
         <v>101</v>
@@ -1374,42 +1401,36 @@
       <c r="G4" s="4">
         <v>113</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:20">
@@ -1417,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4">
         <v>101</v>
@@ -1431,42 +1452,36 @@
       <c r="G5" s="4">
         <v>113</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:20">
@@ -1474,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4">
         <v>104</v>
@@ -1488,42 +1503,36 @@
       <c r="G6" s="4">
         <v>117</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="2:20">
@@ -1531,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="4">
         <v>105</v>
@@ -1545,42 +1554,36 @@
       <c r="G7" s="4">
         <v>118</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="O7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R7" s="1">
         <v>888</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="2:20">
@@ -1588,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4">
         <v>106</v>
@@ -1602,42 +1605,36 @@
       <c r="G8" s="4">
         <v>119</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="O8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R8" s="1">
         <v>888</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="2:20">
@@ -1645,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="4">
         <v>107</v>
@@ -1659,42 +1656,36 @@
       <c r="G9" s="4">
         <v>120</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="O9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="2:20">
@@ -1702,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4">
         <v>108</v>
@@ -1716,42 +1707,36 @@
       <c r="G10" s="4">
         <v>121</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R10" s="1">
         <v>888</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="2:20">
@@ -1759,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4">
         <v>109</v>
@@ -1773,42 +1758,36 @@
       <c r="G11" s="4">
         <v>122</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="O11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="2:19">
@@ -1816,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="4">
         <v>228</v>
@@ -1830,49 +1809,330 @@
       <c r="G12" s="4">
         <v>240</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="O12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="Q12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="R12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:20">
+      <c r="A13" s="5">
+        <v>1422</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="D13" s="5">
+        <v>379</v>
+      </c>
+      <c r="E13" s="5">
+        <v>379</v>
+      </c>
+      <c r="F13" s="6">
+        <v>391</v>
+      </c>
+      <c r="G13" s="6">
+        <v>391</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="N13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:20">
+      <c r="A14" s="5">
+        <v>1423</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="5">
+        <v>379</v>
+      </c>
+      <c r="E14" s="5">
+        <v>379</v>
+      </c>
+      <c r="F14" s="6">
+        <v>391</v>
+      </c>
+      <c r="G14" s="6">
+        <v>391</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="N14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T14" s="6"/>
     </row>
-    <row r="13" s="1" customFormat="1" spans="11:11">
-      <c r="K13" s="8"/>
+    <row r="15" s="1" customFormat="1" spans="1:20">
+      <c r="A15" s="5">
+        <v>1424</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="5">
+        <v>380</v>
+      </c>
+      <c r="E15" s="5">
+        <v>380</v>
+      </c>
+      <c r="F15" s="6">
+        <v>392</v>
+      </c>
+      <c r="G15" s="6">
+        <v>392</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="6"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="11:11">
-      <c r="K14" s="8"/>
+    <row r="16" spans="1:20">
+      <c r="A16" s="5">
+        <v>1425</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="5">
+        <v>380</v>
+      </c>
+      <c r="E16" s="5">
+        <v>380</v>
+      </c>
+      <c r="F16" s="6">
+        <v>392</v>
+      </c>
+      <c r="G16" s="6">
+        <v>392</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="6"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="11:11">
-      <c r="K15" s="8"/>
+    <row r="17" spans="1:20">
+      <c r="A17" s="5">
+        <v>1426</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5">
+        <v>380</v>
+      </c>
+      <c r="E17" s="5">
+        <v>381</v>
+      </c>
+      <c r="F17" s="6">
+        <v>392</v>
+      </c>
+      <c r="G17" s="6">
+        <v>393</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14295"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -235,8 +235,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -261,6 +261,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -270,7 +300,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,31 +344,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,70 +390,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,13 +414,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,19 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,73 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,67 +582,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,11 +617,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,32 +690,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -693,24 +706,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,152 +719,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,17 +876,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1210,11 +1205,12 @@
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="51.7142857142857" customWidth="1"/>
     <col min="11" max="11" width="9.14285714285714" style="2"/>
     <col min="17" max="17" width="54.1428571428571" customWidth="1"/>
     <col min="18" max="18" width="50.8571428571429" customWidth="1"/>
@@ -1251,7 +1247,7 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -1305,7 +1301,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1315,10 +1311,10 @@
       <c r="N2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1353,7 +1349,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1363,10 +1359,10 @@
       <c r="N3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1404,7 +1400,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1414,10 +1410,10 @@
       <c r="N4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1455,7 +1451,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1465,10 +1461,10 @@
       <c r="N5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -1506,7 +1502,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="4" t="s">
         <v>21</v>
       </c>
@@ -1516,10 +1512,10 @@
       <c r="N6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1557,7 +1553,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="8"/>
+      <c r="K7" s="6"/>
       <c r="L7" s="4" t="s">
         <v>21</v>
       </c>
@@ -1567,10 +1563,10 @@
       <c r="N7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1608,7 +1604,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1618,10 +1614,10 @@
       <c r="N8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1659,7 +1655,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="4" t="s">
         <v>21</v>
       </c>
@@ -1669,10 +1665,10 @@
       <c r="N9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -1710,7 +1706,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1720,10 +1716,10 @@
       <c r="N10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -1761,7 +1757,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1771,10 +1767,10 @@
       <c r="N11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -1822,10 +1818,10 @@
       <c r="N12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -1838,301 +1834,289 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:20">
-      <c r="A13" s="5">
+    <row r="13" s="1" customFormat="1" spans="1:19">
+      <c r="A13" s="3">
         <v>1422</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>379</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>379</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="1">
         <v>391</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="1">
         <v>391</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11" t="s">
+      <c r="K13" s="8"/>
+      <c r="L13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T13" s="6"/>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:20">
-      <c r="A14" s="5">
+    <row r="14" s="1" customFormat="1" spans="1:19">
+      <c r="A14" s="3">
         <v>1423</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>379</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>379</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="1">
         <v>391</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="1">
         <v>391</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11" t="s">
+      <c r="K14" s="8"/>
+      <c r="L14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="6"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:20">
-      <c r="A15" s="5">
+    <row r="15" s="1" customFormat="1" spans="1:19">
+      <c r="A15" s="3">
         <v>1424</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>380</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>380</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="1">
         <v>392</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="1">
         <v>392</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T15" s="6"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>1425</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>380</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="3">
         <v>380</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="1">
         <v>392</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="1">
         <v>392</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11" t="s">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="O16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T16" s="6"/>
+      <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>1426</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>380</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>381</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="1">
         <v>392</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="1">
         <v>393</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="O17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T17" s="6"/>
+      <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\German_Tales\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F09F52B-17BE-4203-85F8-40DC0D4D0C5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28128" windowHeight="12492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -232,14 +238,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,346 +260,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -616,251 +286,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -884,61 +312,17 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Komma" xfId="2" builtinId="3"/>
-    <cellStyle name="40% - Akzent4" xfId="3" builtinId="43"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9"/>
-    <cellStyle name="Akzent2" xfId="5" builtinId="33"/>
-    <cellStyle name="Währung" xfId="6" builtinId="4"/>
-    <cellStyle name="Prozent" xfId="7" builtinId="5"/>
-    <cellStyle name="Akzent4" xfId="8" builtinId="41"/>
-    <cellStyle name="Komma[0]" xfId="9" builtinId="6"/>
-    <cellStyle name="Währung[0]" xfId="10" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
-    <cellStyle name="Eingabe" xfId="12" builtinId="20"/>
-    <cellStyle name="Hinweis" xfId="13" builtinId="10"/>
-    <cellStyle name="Warnmeldung" xfId="14" builtinId="11"/>
-    <cellStyle name="Akzent5" xfId="15" builtinId="45"/>
-    <cellStyle name="Titel" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Überschrift 2" xfId="18" builtinId="17"/>
-    <cellStyle name="Überschrift 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Überschrift 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Ausgabe" xfId="21" builtinId="21"/>
-    <cellStyle name="40% - Akzent2" xfId="22" builtinId="35"/>
-    <cellStyle name="Gesamt" xfId="23" builtinId="25"/>
-    <cellStyle name="Berechnung" xfId="24" builtinId="22"/>
-    <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="26" builtinId="24"/>
-    <cellStyle name="Gut" xfId="27" builtinId="26"/>
-    <cellStyle name="40% - Akzent3" xfId="28" builtinId="39"/>
-    <cellStyle name="Schlecht" xfId="29" builtinId="27"/>
-    <cellStyle name="60% - Akzent6" xfId="30" builtinId="52"/>
-    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
-    <cellStyle name="Akzent1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - Akzent1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - Akzent1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - Akzent5" xfId="35" builtinId="46"/>
-    <cellStyle name="60% - Akzent1" xfId="36" builtinId="32"/>
-    <cellStyle name="20% - Akzent2" xfId="37" builtinId="34"/>
-    <cellStyle name="20% - Akzent6" xfId="38" builtinId="50"/>
-    <cellStyle name="60% - Akzent2" xfId="39" builtinId="36"/>
-    <cellStyle name="Akzent3" xfId="40" builtinId="37"/>
-    <cellStyle name="20% - Akzent3" xfId="41" builtinId="38"/>
-    <cellStyle name="60% - Akzent3" xfId="42" builtinId="40"/>
-    <cellStyle name="20% - Akzent4" xfId="43" builtinId="42"/>
-    <cellStyle name="60% - Akzent4" xfId="44" builtinId="44"/>
-    <cellStyle name="40% - Akzent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Akzent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Akzent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Akzent6" xfId="48" builtinId="51"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1196,27 +580,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A13" sqref="A13:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="51.7142857142857" customWidth="1"/>
-    <col min="11" max="11" width="9.14285714285714" style="2"/>
-    <col min="17" max="17" width="54.1428571428571" customWidth="1"/>
-    <col min="18" max="18" width="50.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="17" max="17" width="54.109375" customWidth="1"/>
+    <col min="18" max="18" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
+    <row r="1" spans="1:21" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +663,7 @@
       </c>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:19">
+    <row r="2" spans="1:21" s="1" customFormat="1">
       <c r="B2" s="4">
         <v>2</v>
       </c>
@@ -1327,7 +711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="2:20">
+    <row r="3" spans="1:21" s="1" customFormat="1">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -1378,7 +762,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="2:20">
+    <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -1429,7 +813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="2:20">
+    <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1480,7 +864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="2:20">
+    <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -1531,7 +915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="2:20">
+    <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -1582,7 +966,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="2:20">
+    <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="B8" s="4">
         <v>2</v>
       </c>
@@ -1633,7 +1017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="2:20">
+    <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -1684,7 +1068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:20">
+    <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="B10" s="4">
         <v>2</v>
       </c>
@@ -1735,7 +1119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:20">
+    <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1786,7 +1170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="2:19">
+    <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="B12" s="4">
         <v>2</v>
       </c>
@@ -1834,10 +1218,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:19">
-      <c r="A13" s="3">
-        <v>1422</v>
-      </c>
+    <row r="13" spans="1:21" s="1" customFormat="1">
+      <c r="A13" s="3"/>
       <c r="B13" s="3">
         <v>1</v>
       </c>
@@ -1882,10 +1264,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:19">
-      <c r="A14" s="3">
-        <v>1423</v>
-      </c>
+    <row r="14" spans="1:21" s="1" customFormat="1">
+      <c r="A14" s="3"/>
       <c r="B14" s="3">
         <v>1</v>
       </c>
@@ -1930,10 +1310,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:19">
-      <c r="A15" s="3">
-        <v>1424</v>
-      </c>
+    <row r="15" spans="1:21" s="1" customFormat="1">
+      <c r="A15" s="3"/>
       <c r="B15" s="3">
         <v>1</v>
       </c>
@@ -1978,10 +1356,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="3">
-        <v>1425</v>
-      </c>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3"/>
       <c r="B16" s="3">
         <v>1</v>
       </c>
@@ -2031,9 +1407,7 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="3">
-        <v>1426</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3">
         <v>1</v>
       </c>
@@ -2104,14 +1478,14 @@
       <c r="S18" s="3"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:20">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:20">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2120,6 +1494,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
+++ b/German_Tales/Data/Fehlende_Zeilen_AL.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20394"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\German_Tales\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F09F52B-17BE-4203-85F8-40DC0D4D0C5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28128" windowHeight="12492" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -151,6 +145,9 @@
     <t>Droß droß drill.</t>
   </si>
   <si>
+    <t>nu</t>
+  </si>
+  <si>
     <t>{Gehören zum Übertitel "Kinderliedchen und Kinderreime: ID 490 in OG Tabelle}</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>6.1329680</t>
+  </si>
+  <si>
+    <t>kein titel</t>
   </si>
   <si>
     <t>Lied bei einem Kinderspiel.</t>
@@ -238,8 +238,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,16 +266,352 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -286,17 +628,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -304,25 +891,77 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="40% - Akzent4" xfId="3" builtinId="43"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9"/>
+    <cellStyle name="Akzent2" xfId="5" builtinId="33"/>
+    <cellStyle name="Währung" xfId="6" builtinId="4"/>
+    <cellStyle name="Prozent" xfId="7" builtinId="5"/>
+    <cellStyle name="Akzent4" xfId="8" builtinId="41"/>
+    <cellStyle name="Komma[0]" xfId="9" builtinId="6"/>
+    <cellStyle name="Währung[0]" xfId="10" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
+    <cellStyle name="Eingabe" xfId="12" builtinId="20"/>
+    <cellStyle name="Hinweis" xfId="13" builtinId="10"/>
+    <cellStyle name="Warnmeldung" xfId="14" builtinId="11"/>
+    <cellStyle name="Akzent5" xfId="15" builtinId="45"/>
+    <cellStyle name="Titel" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Überschrift 2" xfId="18" builtinId="17"/>
+    <cellStyle name="Überschrift 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Überschrift 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Ausgabe" xfId="21" builtinId="21"/>
+    <cellStyle name="40% - Akzent2" xfId="22" builtinId="35"/>
+    <cellStyle name="Gesamt" xfId="23" builtinId="25"/>
+    <cellStyle name="Berechnung" xfId="24" builtinId="22"/>
+    <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23"/>
+    <cellStyle name="Verknüpfte Zelle" xfId="26" builtinId="24"/>
+    <cellStyle name="Gut" xfId="27" builtinId="26"/>
+    <cellStyle name="40% - Akzent3" xfId="28" builtinId="39"/>
+    <cellStyle name="Schlecht" xfId="29" builtinId="27"/>
+    <cellStyle name="60% - Akzent6" xfId="30" builtinId="52"/>
+    <cellStyle name="Neutral" xfId="31" builtinId="28"/>
+    <cellStyle name="Akzent1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - Akzent1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - Akzent1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - Akzent5" xfId="35" builtinId="46"/>
+    <cellStyle name="60% - Akzent1" xfId="36" builtinId="32"/>
+    <cellStyle name="20% - Akzent2" xfId="37" builtinId="34"/>
+    <cellStyle name="20% - Akzent6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% - Akzent2" xfId="39" builtinId="36"/>
+    <cellStyle name="Akzent3" xfId="40" builtinId="37"/>
+    <cellStyle name="20% - Akzent3" xfId="41" builtinId="38"/>
+    <cellStyle name="60% - Akzent3" xfId="42" builtinId="40"/>
+    <cellStyle name="20% - Akzent4" xfId="43" builtinId="42"/>
+    <cellStyle name="60% - Akzent4" xfId="44" builtinId="44"/>
+    <cellStyle name="40% - Akzent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Akzent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Akzent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Akzent6" xfId="48" builtinId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -580,125 +1219,125 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.11111111111111" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="51.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="2"/>
-    <col min="17" max="17" width="54.109375" customWidth="1"/>
-    <col min="18" max="18" width="50.88671875" customWidth="1"/>
+    <col min="3" max="3" width="51.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.11111111111111" style="3"/>
+    <col min="17" max="17" width="54.1111111111111" customWidth="1"/>
+    <col min="18" max="18" width="50.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:21">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3"/>
+      <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1">
-      <c r="B2" s="4">
+    <row r="2" s="1" customFormat="1" spans="2:19">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>17</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>17</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>29</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>29</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -711,788 +1350,929 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1">
-      <c r="B3" s="1">
+    <row r="3" s="2" customFormat="1" spans="2:20">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>101</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>101</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>113</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>113</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="4" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="2">
         <v>888</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1">
-      <c r="B4" s="4">
+    <row r="4" s="2" customFormat="1" spans="2:20">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>101</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>101</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>113</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>113</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="4" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
-      <c r="B5" s="1">
+    <row r="5" s="2" customFormat="1" spans="2:20">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>101</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>101</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>113</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>113</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="4" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
-      <c r="B6" s="4">
+    <row r="6" s="2" customFormat="1" spans="2:20">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>104</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>105</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>116</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>117</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="4" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
-      <c r="B7" s="1">
+    <row r="7" s="2" customFormat="1" spans="2:20">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>105</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>106</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>117</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>118</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="2">
         <v>888</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="2:20">
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6">
+        <v>106</v>
+      </c>
+      <c r="E8" s="6">
+        <v>107</v>
+      </c>
+      <c r="F8" s="6">
+        <v>118</v>
+      </c>
+      <c r="G8" s="6">
+        <v>119</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" s="2">
+        <v>888</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="2:20">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6">
+        <v>107</v>
+      </c>
+      <c r="E9" s="6">
+        <v>108</v>
+      </c>
+      <c r="F9" s="6">
+        <v>119</v>
+      </c>
+      <c r="G9" s="6">
+        <v>120</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="2:20">
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6">
+        <v>108</v>
+      </c>
+      <c r="E10" s="6">
+        <v>109</v>
+      </c>
+      <c r="F10" s="6">
+        <v>120</v>
+      </c>
+      <c r="G10" s="6">
+        <v>121</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="2">
+        <v>888</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="T10" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
-      <c r="B8" s="4">
+    <row r="11" s="2" customFormat="1" spans="2:20">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4">
-        <v>106</v>
-      </c>
-      <c r="E8" s="4">
-        <v>107</v>
-      </c>
-      <c r="F8" s="4">
-        <v>118</v>
-      </c>
-      <c r="G8" s="4">
-        <v>119</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4" t="s">
+      <c r="D11" s="6">
+        <v>109</v>
+      </c>
+      <c r="E11" s="6">
+        <v>110</v>
+      </c>
+      <c r="F11" s="6">
+        <v>121</v>
+      </c>
+      <c r="G11" s="6">
+        <v>122</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" s="1">
-        <v>888</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="Q11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>45</v>
+      <c r="T11" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
-      <c r="B9" s="1">
+    <row r="12" s="1" customFormat="1" spans="2:19">
+      <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="4">
-        <v>107</v>
-      </c>
-      <c r="E9" s="4">
-        <v>108</v>
-      </c>
-      <c r="F9" s="4">
-        <v>119</v>
-      </c>
-      <c r="G9" s="4">
-        <v>120</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="5">
+        <v>228</v>
+      </c>
+      <c r="E12" s="5">
+        <v>228</v>
+      </c>
+      <c r="F12" s="5">
+        <v>240</v>
+      </c>
+      <c r="G12" s="5">
+        <v>240</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="4" t="s">
+      <c r="M12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
-      <c r="B10" s="4">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4">
-        <v>108</v>
-      </c>
-      <c r="E10" s="4">
-        <v>109</v>
-      </c>
-      <c r="F10" s="4">
-        <v>120</v>
-      </c>
-      <c r="G10" s="4">
-        <v>121</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R10" s="1">
-        <v>888</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4">
-        <v>109</v>
-      </c>
-      <c r="E11" s="4">
-        <v>110</v>
-      </c>
-      <c r="F11" s="4">
-        <v>121</v>
-      </c>
-      <c r="G11" s="4">
-        <v>122</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="4">
-        <v>228</v>
-      </c>
-      <c r="E12" s="4">
-        <v>228</v>
-      </c>
-      <c r="F12" s="4">
-        <v>240</v>
-      </c>
-      <c r="G12" s="4">
-        <v>240</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="O12" s="10" t="s">
         <v>56</v>
       </c>
+      <c r="P12" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="Q12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3">
+    <row r="13" s="2" customFormat="1" spans="2:19">
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7">
         <v>379</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>379</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>391</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>391</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="4" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R13" s="2">
+        <v>888</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:19">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="D14" s="7">
+        <v>379</v>
+      </c>
+      <c r="E14" s="7">
+        <v>379</v>
+      </c>
+      <c r="F14" s="2">
+        <v>391</v>
+      </c>
+      <c r="G14" s="2">
+        <v>391</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O14" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R14" s="2">
+        <v>888</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:19">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>379</v>
+      </c>
+      <c r="E15" s="7">
+        <v>379</v>
+      </c>
+      <c r="F15" s="2">
+        <v>391</v>
+      </c>
+      <c r="G15" s="2">
+        <v>391</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="N15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="P15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="Q15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:19">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7">
+        <v>379</v>
+      </c>
+      <c r="E16" s="7">
+        <v>379</v>
+      </c>
+      <c r="F16" s="2">
+        <v>391</v>
+      </c>
+      <c r="G16" s="2">
+        <v>391</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="Q16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" s="7">
+        <v>888</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="1:19">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7">
+        <v>379</v>
+      </c>
+      <c r="E17" s="7">
+        <v>379</v>
+      </c>
+      <c r="F17" s="2">
+        <v>391</v>
+      </c>
+      <c r="G17" s="2">
+        <v>391</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3">
+    <row r="18" s="2" customFormat="1" spans="1:19">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="3">
-        <v>379</v>
-      </c>
-      <c r="E14" s="3">
-        <v>379</v>
-      </c>
-      <c r="F14" s="1">
-        <v>391</v>
-      </c>
-      <c r="G14" s="1">
-        <v>391</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="4" t="s">
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7">
+        <v>380</v>
+      </c>
+      <c r="E18" s="7">
+        <v>380</v>
+      </c>
+      <c r="F18" s="2">
+        <v>392</v>
+      </c>
+      <c r="G18" s="2">
+        <v>392</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:19">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="D19" s="7">
+        <v>380</v>
+      </c>
+      <c r="E19" s="7">
+        <v>380</v>
+      </c>
+      <c r="F19" s="2">
+        <v>392</v>
+      </c>
+      <c r="G19" s="2">
+        <v>392</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:19">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="7">
+        <v>380</v>
+      </c>
+      <c r="E20" s="7">
+        <v>381</v>
+      </c>
+      <c r="F20" s="2">
+        <v>392</v>
+      </c>
+      <c r="G20" s="2">
+        <v>393</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="N20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>27</v>
+      <c r="P20" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="3">
-        <v>380</v>
-      </c>
-      <c r="E15" s="3">
-        <v>380</v>
-      </c>
-      <c r="F15" s="1">
-        <v>392</v>
-      </c>
-      <c r="G15" s="1">
-        <v>392</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>66</v>
-      </c>
+    <row r="21" spans="1:20">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="1"/>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3">
-        <v>380</v>
-      </c>
-      <c r="E16" s="3">
-        <v>380</v>
-      </c>
-      <c r="F16" s="1">
-        <v>392</v>
-      </c>
-      <c r="G16" s="1">
-        <v>392</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T16" s="1"/>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="3">
-        <v>380</v>
-      </c>
-      <c r="E17" s="3">
-        <v>381</v>
-      </c>
-      <c r="F17" s="1">
-        <v>392</v>
-      </c>
-      <c r="G17" s="1">
-        <v>393</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>